--- a/public/import/inventorybudgets.xlsx
+++ b/public/import/inventorybudgets.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bakasa\code\php\laravel\blowplast\public\import\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D41C49-700A-483B-B87B-72250B2DF9A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F8839EA2-3742-4CBB-8C74-7A904D1816EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Pieces" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -473,11 +467,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
@@ -657,51 +651,51 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -718,7 +712,7 @@
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{F1A995F4-2592-4A72-ACEA-6E365A150AB1}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -791,7 +785,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -843,7 +837,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1037,18 +1031,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D52FA9DB-7B45-41C9-9C30-1EA57A4CC22E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="J1" sqref="J1:U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/public/import/inventorybudgets.xlsx
+++ b/public/import/inventorybudgets.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bakasa\code\php\laravel\blowplast\public\import\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{726C6EC9-B9B3-4454-BFAB-38ADA7B8E3A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F8839EA2-3742-4CBB-8C74-7A904D1816EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Pieces" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -467,50 +461,50 @@
     <t xml:space="preserve"> (lacheka, sepyana, gulf, comet, united lub, synergy…..)</t>
   </si>
   <si>
-    <t>2020/1</t>
-  </si>
-  <si>
-    <t>2020/2</t>
-  </si>
-  <si>
-    <t>2020/3</t>
-  </si>
-  <si>
-    <t>2020/4</t>
-  </si>
-  <si>
-    <t>2020/5</t>
-  </si>
-  <si>
-    <t>2020/6</t>
-  </si>
-  <si>
-    <t>2020/7</t>
-  </si>
-  <si>
-    <t>2020/8</t>
-  </si>
-  <si>
-    <t>2020/9</t>
-  </si>
-  <si>
-    <t>2020/10</t>
-  </si>
-  <si>
-    <t>2020/11</t>
-  </si>
-  <si>
-    <t>2020/12</t>
+    <t>2020_01</t>
+  </si>
+  <si>
+    <t>2020_02</t>
+  </si>
+  <si>
+    <t>2020_03</t>
+  </si>
+  <si>
+    <t>2020_04</t>
+  </si>
+  <si>
+    <t>2020_05</t>
+  </si>
+  <si>
+    <t>2020_06</t>
+  </si>
+  <si>
+    <t>2020_07</t>
+  </si>
+  <si>
+    <t>2020_08</t>
+  </si>
+  <si>
+    <t>2020_09</t>
+  </si>
+  <si>
+    <t>2020_10</t>
+  </si>
+  <si>
+    <t>2020_11</t>
+  </si>
+  <si>
+    <t>2020_12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="dd/mm"/>
+    <numFmt numFmtId="166" formatCode="dd/mm"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -689,7 +683,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="31">
@@ -701,16 +695,16 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -742,13 +736,13 @@
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{F1A995F4-2592-4A72-ACEA-6E365A150AB1}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -821,7 +815,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -873,7 +867,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1067,18 +1061,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D52FA9DB-7B45-41C9-9C30-1EA57A4CC22E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/public/import/inventorybudgets.xlsx
+++ b/public/import/inventorybudgets.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="144">
   <si>
     <t>LUBE</t>
   </si>
@@ -455,13 +455,10 @@
     <t>1/3/5 GREY CAP</t>
   </si>
   <si>
-    <t>Others_Lube</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (lacheka, sepyana, gulf, comet, united lub, synergy…..)</t>
-  </si>
-  <si>
     <t>PRICE</t>
+  </si>
+  <si>
+    <t>WT / PC /Repeat (G)</t>
   </si>
 </sst>
 </file>
@@ -536,7 +533,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -635,26 +632,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -672,13 +656,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -692,7 +673,6 @@
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1039,21 +1019,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U135"/>
+  <dimension ref="A1:U134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:U1"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="26" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="22" customWidth="1"/>
     <col min="10" max="21" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1064,10 +1044,10 @@
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -1077,48 +1057,48 @@
         <v>6</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>3</v>
+        <v>143</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="J1" s="29">
+      <c r="I1" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="J1" s="25">
         <v>43861</v>
       </c>
-      <c r="K1" s="30">
+      <c r="K1" s="26">
         <v>43889</v>
       </c>
-      <c r="L1" s="30">
+      <c r="L1" s="26">
         <v>43921</v>
       </c>
-      <c r="M1" s="30">
+      <c r="M1" s="26">
         <v>43951</v>
       </c>
-      <c r="N1" s="30">
+      <c r="N1" s="26">
         <v>43982</v>
       </c>
-      <c r="O1" s="31">
+      <c r="O1" s="27">
         <v>44012</v>
       </c>
-      <c r="P1" s="30">
+      <c r="P1" s="26">
         <v>44043</v>
       </c>
-      <c r="Q1" s="30">
+      <c r="Q1" s="26">
         <v>44074</v>
       </c>
-      <c r="R1" s="30">
+      <c r="R1" s="26">
         <v>44104</v>
       </c>
-      <c r="S1" s="30">
+      <c r="S1" s="26">
         <v>44135</v>
       </c>
-      <c r="T1" s="30">
+      <c r="T1" s="26">
         <v>44165</v>
       </c>
-      <c r="U1" s="32">
+      <c r="U1" s="28">
         <v>44196</v>
       </c>
     </row>
@@ -1129,10 +1109,10 @@
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="16">
         <v>240</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="17">
         <v>263.41666666666674</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1148,7 +1128,7 @@
         <f t="shared" ref="H2:H86" ca="1" si="0">1000/$H2*$G2</f>
         <v>247.27272727272711</v>
       </c>
-      <c r="I2" s="24">
+      <c r="I2" s="21">
         <v>63.22</v>
       </c>
       <c r="J2" s="6">
@@ -1195,10 +1175,10 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="16">
         <v>210</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="17">
         <v>240.47619047619048</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -1214,7 +1194,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>266.66666666666652</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="21">
         <v>55.04</v>
       </c>
       <c r="J3" s="6">
@@ -1261,10 +1241,10 @@
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="16">
         <v>50</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="17">
         <v>315.55999999999995</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1280,7 +1260,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>240.21276595744681</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="21">
         <v>16.89</v>
       </c>
       <c r="J4" s="6">
@@ -1327,10 +1307,10 @@
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="16">
         <v>85</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="17">
         <v>268.81045751633968</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1346,7 +1326,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>245.43478260869566</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="21">
         <v>24.42</v>
       </c>
       <c r="J5" s="6">
@@ -1393,10 +1373,10 @@
       <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="18">
         <v>1100</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="17">
         <v>261.60000000000002</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -1412,7 +1392,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>251.72413793103448</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="21">
         <v>287.76</v>
       </c>
       <c r="J6" s="8">
@@ -1459,10 +1439,10 @@
       <c r="B7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="19">
         <v>240</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="17">
         <v>274.16666666666669</v>
       </c>
       <c r="E7" s="9" t="s">
@@ -1478,7 +1458,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>186.20689655172413</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="21">
         <v>65.8</v>
       </c>
       <c r="J7" s="10">
@@ -1525,10 +1505,10 @@
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="16">
         <v>1</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="17">
         <v>1080</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1544,7 +1524,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>208.33333333333334</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="21">
         <v>1.08</v>
       </c>
       <c r="J8" s="6">
@@ -1591,10 +1571,10 @@
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="16">
         <v>3</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="17">
         <v>650</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -1610,7 +1590,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>231.52866242038215</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="21">
         <v>1.95</v>
       </c>
       <c r="J9" s="6">
@@ -1657,13 +1637,13 @@
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="16">
         <v>5</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="17">
         <v>436.00000000000006</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="21" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="3">
@@ -1676,7 +1656,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>227.1875</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="21">
         <v>4</v>
       </c>
       <c r="J10" s="6">
@@ -1723,13 +1703,13 @@
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="16">
         <v>14</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="17">
         <v>389.28571428571428</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="3">
@@ -1742,7 +1722,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>200</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="21">
         <v>5.45</v>
       </c>
       <c r="J11" s="6">
@@ -1789,10 +1769,10 @@
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="16">
         <v>1000</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="17">
         <v>260.39999999999998</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -1808,7 +1788,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>200</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="21">
         <v>260.39999999999998</v>
       </c>
       <c r="J12" s="6">
@@ -1855,10 +1835,10 @@
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="16">
         <v>1000</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="17">
         <v>189.42999999999998</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -1874,7 +1854,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>200</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="21">
         <v>189.43</v>
       </c>
       <c r="J13" s="6">
@@ -1921,10 +1901,10 @@
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="16">
         <v>54</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="17">
         <v>222.96296296296293</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -1940,7 +1920,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>235.62325581395348</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="21">
         <v>12.04</v>
       </c>
       <c r="J14" s="6">
@@ -1987,10 +1967,10 @@
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="16">
         <v>7</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="17">
         <v>642.85714285714289</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -2006,7 +1986,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>187.69230769230771</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="21">
         <v>2.5</v>
       </c>
       <c r="J15" s="6">
@@ -2053,10 +2033,10 @@
       <c r="B16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="18">
         <v>2</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="17">
         <v>1100</v>
       </c>
       <c r="E16" s="7" t="s">
@@ -2072,7 +2052,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>266.66666666666669</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I16" s="21">
         <v>0.5</v>
       </c>
       <c r="J16" s="8">
@@ -2119,10 +2099,10 @@
       <c r="B17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="16">
         <v>6</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="17">
         <v>281.66666666666669</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -2138,7 +2118,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>228.57142857142858</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="21">
         <v>1.82</v>
       </c>
       <c r="J17" s="6">
@@ -2185,10 +2165,10 @@
       <c r="B18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="16">
         <v>250</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="17">
         <v>270</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -2204,7 +2184,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>300</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I18" s="21">
         <v>72.56</v>
       </c>
       <c r="J18" s="6">
@@ -2251,10 +2231,10 @@
       <c r="B19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="16">
         <v>250</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="17">
         <v>270</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -2270,7 +2250,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>320.83333333333331</v>
       </c>
-      <c r="I19" s="24">
+      <c r="I19" s="21">
         <v>72.56</v>
       </c>
       <c r="J19" s="6">
@@ -2317,10 +2297,10 @@
       <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="16">
         <v>250</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="17">
         <v>270</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -2336,7 +2316,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>320.83333333333331</v>
       </c>
-      <c r="I20" s="24">
+      <c r="I20" s="21">
         <v>72.56</v>
       </c>
       <c r="J20" s="6">
@@ -2383,10 +2363,10 @@
       <c r="B21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="16">
         <v>210</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="17">
         <v>266.80952380952385</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -2402,7 +2382,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>360</v>
       </c>
-      <c r="I21" s="24">
+      <c r="I21" s="21">
         <v>56.03</v>
       </c>
       <c r="J21" s="6">
@@ -2449,10 +2429,10 @@
       <c r="B22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="16">
         <v>210</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="17">
         <v>266.80952380952385</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -2468,7 +2448,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>360</v>
       </c>
-      <c r="I22" s="24">
+      <c r="I22" s="21">
         <v>60.23</v>
       </c>
       <c r="J22" s="6">
@@ -2515,10 +2495,10 @@
       <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="16">
         <v>210</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="17">
         <v>266.80952380952385</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -2534,7 +2514,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>362.5</v>
       </c>
-      <c r="I23" s="24">
+      <c r="I23" s="21">
         <v>60.23</v>
       </c>
       <c r="J23" s="6">
@@ -2581,10 +2561,10 @@
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="16">
         <v>25</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="17">
         <v>379.20000000000005</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -2600,7 +2580,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>362.5</v>
       </c>
-      <c r="I24" s="24">
+      <c r="I24" s="21">
         <v>10.19</v>
       </c>
       <c r="J24" s="6">
@@ -2647,10 +2627,10 @@
       <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="16">
         <v>46</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="17">
         <v>267.39130434782612</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -2666,7 +2646,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>362.5</v>
       </c>
-      <c r="I25" s="24">
+      <c r="I25" s="21">
         <v>13.22</v>
       </c>
       <c r="J25" s="6">
@@ -2713,10 +2693,10 @@
       <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="16">
         <v>42</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="17">
         <v>292.85714285714289</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -2732,7 +2712,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>540</v>
       </c>
-      <c r="I26" s="24">
+      <c r="I26" s="21">
         <v>13.22</v>
       </c>
       <c r="J26" s="6">
@@ -2779,10 +2759,10 @@
       <c r="B27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="16">
         <v>45</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="17">
         <v>273.33333333333337</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -2791,7 +2771,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="24">
+      <c r="I27" s="21">
         <v>13.22</v>
       </c>
       <c r="J27" s="6">
@@ -2838,10 +2818,10 @@
       <c r="B28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="16">
         <v>58</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="17">
         <v>272.41379310344826</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -2857,7 +2837,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>540.00000000000023</v>
       </c>
-      <c r="I28" s="24">
+      <c r="I28" s="21">
         <v>17</v>
       </c>
       <c r="J28" s="6">
@@ -2904,10 +2884,10 @@
       <c r="B29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="16">
         <v>58</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="17">
         <v>272.41379310344826</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -2916,7 +2896,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="24">
+      <c r="I29" s="21">
         <v>17</v>
       </c>
       <c r="J29" s="6">
@@ -2963,10 +2943,10 @@
       <c r="B30" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="16">
         <v>58</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="17">
         <v>272.41379310344826</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -2975,7 +2955,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="24">
+      <c r="I30" s="21">
         <v>17</v>
       </c>
       <c r="J30" s="6">
@@ -3022,10 +3002,10 @@
       <c r="B31" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="16">
         <v>1000</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="17">
         <v>235</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -3034,7 +3014,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="24">
+      <c r="I31" s="21">
         <v>252.63</v>
       </c>
       <c r="J31" s="6">
@@ -3081,10 +3061,10 @@
       <c r="B32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="16">
         <v>1000</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32" s="17">
         <v>235</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -3093,7 +3073,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="24">
+      <c r="I32" s="21">
         <v>250</v>
       </c>
       <c r="J32" s="6">
@@ -3140,10 +3120,10 @@
       <c r="B33" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="18">
         <v>1000</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="17">
         <v>235</v>
       </c>
       <c r="E33" s="7" t="s">
@@ -3152,7 +3132,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="24">
+      <c r="I33" s="21">
         <v>252.63</v>
       </c>
       <c r="J33" s="8">
@@ -3197,10 +3177,10 @@
       <c r="B34" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C34" s="19">
         <v>245</v>
       </c>
-      <c r="D34" s="20">
+      <c r="D34" s="17">
         <v>250</v>
       </c>
       <c r="E34" s="9" t="s">
@@ -3209,7 +3189,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="24">
+      <c r="I34" s="21">
         <v>62.25</v>
       </c>
       <c r="J34" s="10">
@@ -3256,10 +3236,10 @@
       <c r="B35" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="19">
+      <c r="C35" s="16">
         <v>210</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35" s="17">
         <v>250</v>
       </c>
       <c r="E35" s="1" t="s">
@@ -3268,7 +3248,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="24">
+      <c r="I35" s="21">
         <v>53.5</v>
       </c>
       <c r="J35" s="6">
@@ -3315,10 +3295,10 @@
       <c r="B36" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="19">
+      <c r="C36" s="16">
         <v>6</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="17">
         <v>250</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -3327,7 +3307,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="24">
+      <c r="I36" s="21">
         <v>1.5</v>
       </c>
       <c r="J36" s="6">
@@ -3374,10 +3354,10 @@
       <c r="B37" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="19">
+      <c r="C37" s="16">
         <v>6</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D37" s="17">
         <v>291.66666666666669</v>
       </c>
       <c r="E37" s="1" t="s">
@@ -3386,7 +3366,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="2"/>
-      <c r="I37" s="24">
+      <c r="I37" s="21">
         <v>25.5</v>
       </c>
       <c r="J37" s="6">
@@ -3433,10 +3413,10 @@
       <c r="B38" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="19">
+      <c r="C38" s="16">
         <v>6</v>
       </c>
-      <c r="D38" s="20">
+      <c r="D38" s="17">
         <v>297.61904761904759</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -3445,7 +3425,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="2"/>
-      <c r="I38" s="24">
+      <c r="I38" s="21">
         <v>1.5</v>
       </c>
       <c r="J38" s="6">
@@ -3492,10 +3472,10 @@
       <c r="B39" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="19">
+      <c r="C39" s="16">
         <v>6</v>
       </c>
-      <c r="D39" s="20">
+      <c r="D39" s="17">
         <v>416.66666666666669</v>
       </c>
       <c r="E39" s="1" t="s">
@@ -3504,7 +3484,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="2"/>
-      <c r="I39" s="24">
+      <c r="I39" s="21">
         <v>1.25</v>
       </c>
       <c r="J39" s="6">
@@ -3551,10 +3531,10 @@
       <c r="B40" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="19">
+      <c r="C40" s="16">
         <v>72</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D40" s="17">
         <v>250</v>
       </c>
       <c r="E40" s="1" t="s">
@@ -3563,7 +3543,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="24">
+      <c r="I40" s="21">
         <v>16.5</v>
       </c>
       <c r="J40" s="6">
@@ -3610,10 +3590,10 @@
       <c r="B41" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="19">
+      <c r="C41" s="16">
         <v>14</v>
       </c>
-      <c r="D41" s="20">
+      <c r="D41" s="17">
         <v>500</v>
       </c>
       <c r="E41" s="1" t="s">
@@ -3622,7 +3602,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="2"/>
-      <c r="I41" s="24">
+      <c r="I41" s="21">
         <v>5.45</v>
       </c>
       <c r="J41" s="6">
@@ -3669,10 +3649,10 @@
       <c r="B42" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="19">
+      <c r="C42" s="16">
         <v>5</v>
       </c>
-      <c r="D42" s="20">
+      <c r="D42" s="17">
         <v>500</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -3681,7 +3661,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="2"/>
-      <c r="I42" s="24">
+      <c r="I42" s="21">
         <v>4</v>
       </c>
       <c r="J42" s="6">
@@ -3728,10 +3708,10 @@
       <c r="B43" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="19">
+      <c r="C43" s="16">
         <v>72</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D43" s="17">
         <v>250</v>
       </c>
       <c r="E43" s="1" t="s">
@@ -3740,7 +3720,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="2"/>
-      <c r="I43" s="24">
+      <c r="I43" s="21">
         <v>18.5</v>
       </c>
       <c r="J43" s="6">
@@ -3787,10 +3767,10 @@
       <c r="B44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="19">
+      <c r="C44" s="16">
         <v>72</v>
       </c>
-      <c r="D44" s="20">
+      <c r="D44" s="17">
         <v>254.62962962962959</v>
       </c>
       <c r="E44" s="1" t="s">
@@ -3799,7 +3779,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="2"/>
-      <c r="I44" s="24">
+      <c r="I44" s="21">
         <v>16.5</v>
       </c>
       <c r="J44" s="6">
@@ -3846,10 +3826,10 @@
       <c r="B45" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="19">
+      <c r="C45" s="16">
         <v>72</v>
       </c>
-      <c r="D45" s="20">
+      <c r="D45" s="17">
         <v>254.16666666666666</v>
       </c>
       <c r="E45" s="1" t="s">
@@ -3858,7 +3838,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="2"/>
-      <c r="I45" s="24">
+      <c r="I45" s="21">
         <v>4.7</v>
       </c>
       <c r="J45" s="6">
@@ -3905,10 +3885,10 @@
       <c r="B46" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C46" s="19">
+      <c r="C46" s="16">
         <v>1200</v>
       </c>
-      <c r="D46" s="20">
+      <c r="D46" s="17">
         <v>221.25</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -3917,7 +3897,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="2"/>
-      <c r="I46" s="24">
+      <c r="I46" s="21">
         <v>275</v>
       </c>
       <c r="J46" s="6">
@@ -3964,10 +3944,10 @@
       <c r="B47" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="19">
+      <c r="C47" s="16">
         <v>1200</v>
       </c>
-      <c r="D47" s="20">
+      <c r="D47" s="17">
         <v>221.25</v>
       </c>
       <c r="E47" s="1" t="s">
@@ -3976,7 +3956,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="2"/>
-      <c r="I47" s="24">
+      <c r="I47" s="21">
         <v>275</v>
       </c>
       <c r="J47" s="6">
@@ -4023,10 +4003,10 @@
       <c r="B48" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C48" s="21">
+      <c r="C48" s="18">
         <v>1200</v>
       </c>
-      <c r="D48" s="20">
+      <c r="D48" s="17">
         <v>221.25</v>
       </c>
       <c r="E48" s="7" t="s">
@@ -4035,7 +4015,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="2"/>
-      <c r="I48" s="24">
+      <c r="I48" s="21">
         <v>275</v>
       </c>
       <c r="J48" s="8">
@@ -4082,10 +4062,10 @@
       <c r="B49" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="22">
+      <c r="C49" s="19">
         <v>7</v>
       </c>
-      <c r="D49" s="20">
+      <c r="D49" s="17">
         <v>524.28571428571422</v>
       </c>
       <c r="E49" s="9" t="s">
@@ -4094,7 +4074,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="2"/>
-      <c r="I49" s="24">
+      <c r="I49" s="21">
         <v>4.7</v>
       </c>
       <c r="J49" s="10">
@@ -4141,10 +4121,10 @@
       <c r="B50" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="19">
+      <c r="C50" s="16">
         <v>70</v>
       </c>
-      <c r="D50" s="20">
+      <c r="D50" s="17">
         <v>239.71428571428575</v>
       </c>
       <c r="E50" s="1" t="s">
@@ -4153,7 +4133,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="2"/>
-      <c r="I50" s="24">
+      <c r="I50" s="21">
         <v>17.62</v>
       </c>
       <c r="J50" s="6">
@@ -4200,10 +4180,10 @@
       <c r="B51" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C51" s="19">
+      <c r="C51" s="16">
         <v>65</v>
       </c>
-      <c r="D51" s="20">
+      <c r="D51" s="17">
         <v>274.61538461538464</v>
       </c>
       <c r="E51" s="1" t="s">
@@ -4212,7 +4192,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="2"/>
-      <c r="I51" s="24">
+      <c r="I51" s="21">
         <v>17.850000000000001</v>
       </c>
       <c r="J51" s="6">
@@ -4259,10 +4239,10 @@
       <c r="B52" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="19">
+      <c r="C52" s="16">
         <v>1000</v>
       </c>
-      <c r="D52" s="20">
+      <c r="D52" s="17">
         <v>290</v>
       </c>
       <c r="E52" s="1" t="s">
@@ -4271,7 +4251,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="2"/>
-      <c r="I52" s="24">
+      <c r="I52" s="21">
         <v>250</v>
       </c>
       <c r="J52" s="6">
@@ -4318,10 +4298,10 @@
       <c r="B53" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="19">
+      <c r="C53" s="16">
         <v>26</v>
       </c>
-      <c r="D53" s="20">
+      <c r="D53" s="17">
         <v>326.15384615384619</v>
       </c>
       <c r="E53" s="1" t="s">
@@ -4330,7 +4310,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="2"/>
-      <c r="I53" s="24">
+      <c r="I53" s="21">
         <v>8.48</v>
       </c>
       <c r="J53" s="6">
@@ -4377,10 +4357,10 @@
       <c r="B54" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="19">
+      <c r="C54" s="16">
         <v>1000</v>
       </c>
-      <c r="D54" s="20">
+      <c r="D54" s="17">
         <v>290</v>
       </c>
       <c r="E54" s="1" t="s">
@@ -4389,7 +4369,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="2"/>
-      <c r="I54" s="24">
+      <c r="I54" s="21">
         <v>290</v>
       </c>
       <c r="J54" s="6">
@@ -4436,10 +4416,10 @@
       <c r="B55" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="19">
+      <c r="C55" s="16">
         <v>1000</v>
       </c>
-      <c r="D55" s="20">
+      <c r="D55" s="17">
         <v>290</v>
       </c>
       <c r="E55" s="1" t="s">
@@ -4448,7 +4428,7 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="2"/>
-      <c r="I55" s="24">
+      <c r="I55" s="21">
         <v>290</v>
       </c>
       <c r="J55" s="6">
@@ -4495,10 +4475,10 @@
       <c r="B56" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="19">
+      <c r="C56" s="16">
         <v>1000</v>
       </c>
-      <c r="D56" s="20">
+      <c r="D56" s="17">
         <v>290</v>
       </c>
       <c r="E56" s="1" t="s">
@@ -4507,7 +4487,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="2"/>
-      <c r="I56" s="24">
+      <c r="I56" s="21">
         <v>290</v>
       </c>
       <c r="J56" s="6">
@@ -4554,10 +4534,10 @@
       <c r="B57" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C57" s="19">
+      <c r="C57" s="16">
         <v>1000</v>
       </c>
-      <c r="D57" s="20">
+      <c r="D57" s="17">
         <v>290</v>
       </c>
       <c r="E57" s="1" t="s">
@@ -4566,7 +4546,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="2"/>
-      <c r="I57" s="24">
+      <c r="I57" s="21">
         <v>5.0999999999999996</v>
       </c>
       <c r="J57" s="6">
@@ -4613,10 +4593,10 @@
       <c r="B58" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="19">
+      <c r="C58" s="16">
         <v>1000</v>
       </c>
-      <c r="D58" s="20">
+      <c r="D58" s="17">
         <v>290</v>
       </c>
       <c r="E58" s="1" t="s">
@@ -4625,7 +4605,7 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="2"/>
-      <c r="I58" s="24">
+      <c r="I58" s="21">
         <v>290</v>
       </c>
       <c r="J58" s="6">
@@ -4672,10 +4652,10 @@
       <c r="B59" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="19">
+      <c r="C59" s="16">
         <v>4</v>
       </c>
-      <c r="D59" s="20">
+      <c r="D59" s="17">
         <v>367.5</v>
       </c>
       <c r="E59" s="1" t="s">
@@ -4684,7 +4664,7 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="2"/>
-      <c r="I59" s="24">
+      <c r="I59" s="21">
         <v>1.47</v>
       </c>
       <c r="J59" s="6">
@@ -4731,10 +4711,10 @@
       <c r="B60" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C60" s="19">
+      <c r="C60" s="16">
         <v>6</v>
       </c>
-      <c r="D60" s="20">
+      <c r="D60" s="17">
         <v>465.83333333333331</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -4743,7 +4723,7 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="2"/>
-      <c r="I60" s="24">
+      <c r="I60" s="21">
         <v>2.86</v>
       </c>
       <c r="J60" s="6">
@@ -4790,10 +4770,10 @@
       <c r="B61" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C61" s="19">
+      <c r="C61" s="16">
         <v>6</v>
       </c>
-      <c r="D61" s="20">
+      <c r="D61" s="17">
         <v>488.33333333333331</v>
       </c>
       <c r="E61" s="1" t="s">
@@ -4802,7 +4782,7 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="2"/>
-      <c r="I61" s="24">
+      <c r="I61" s="21">
         <v>2.93</v>
       </c>
       <c r="J61" s="6">
@@ -4849,10 +4829,10 @@
       <c r="B62" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C62" s="19">
+      <c r="C62" s="16">
         <v>6</v>
       </c>
-      <c r="D62" s="20">
+      <c r="D62" s="17">
         <v>465</v>
       </c>
       <c r="E62" s="1" t="s">
@@ -4861,7 +4841,7 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="2"/>
-      <c r="I62" s="24">
+      <c r="I62" s="21">
         <v>2.93</v>
       </c>
       <c r="J62" s="6">
@@ -4908,10 +4888,10 @@
       <c r="B63" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C63" s="19">
+      <c r="C63" s="16">
         <v>6</v>
       </c>
-      <c r="D63" s="20">
+      <c r="D63" s="17">
         <v>488.33333333333331</v>
       </c>
       <c r="E63" s="1" t="s">
@@ -4927,7 +4907,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>260.60606060606062</v>
       </c>
-      <c r="I63" s="24">
+      <c r="I63" s="21">
         <v>2.93</v>
       </c>
       <c r="J63" s="6">
@@ -4974,10 +4954,10 @@
       <c r="B64" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C64" s="19">
+      <c r="C64" s="16">
         <v>6</v>
       </c>
-      <c r="D64" s="20">
+      <c r="D64" s="17">
         <v>465</v>
       </c>
       <c r="E64" s="1" t="s">
@@ -4993,7 +4973,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>220</v>
       </c>
-      <c r="I64" s="24">
+      <c r="I64" s="21">
         <v>3</v>
       </c>
       <c r="J64" s="6">
@@ -5040,10 +5020,10 @@
       <c r="B65" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C65" s="19">
+      <c r="C65" s="16">
         <v>6</v>
       </c>
-      <c r="D65" s="20">
+      <c r="D65" s="17">
         <v>476.66666666666663</v>
       </c>
       <c r="E65" s="1" t="s">
@@ -5059,7 +5039,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>220</v>
       </c>
-      <c r="I65" s="24">
+      <c r="I65" s="21">
         <v>2.86</v>
       </c>
       <c r="J65" s="6">
@@ -5106,10 +5086,10 @@
       <c r="B66" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C66" s="19">
+      <c r="C66" s="16">
         <v>6</v>
       </c>
-      <c r="D66" s="20">
+      <c r="D66" s="17">
         <v>476.66666666666663</v>
       </c>
       <c r="E66" s="1" t="s">
@@ -5125,7 +5105,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>428.57142857142856</v>
       </c>
-      <c r="I66" s="24">
+      <c r="I66" s="21">
         <v>2.86</v>
       </c>
       <c r="J66" s="6">
@@ -5172,10 +5152,10 @@
       <c r="B67" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C67" s="19">
+      <c r="C67" s="16">
         <v>6</v>
       </c>
-      <c r="D67" s="20">
+      <c r="D67" s="17">
         <v>465</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -5191,7 +5171,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>287.56198347107431</v>
       </c>
-      <c r="I67" s="24">
+      <c r="I67" s="21">
         <v>2.35</v>
       </c>
       <c r="J67" s="6">
@@ -5238,10 +5218,10 @@
       <c r="B68" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C68" s="19">
+      <c r="C68" s="16">
         <v>58</v>
       </c>
-      <c r="D68" s="20">
+      <c r="D68" s="17">
         <v>303.79310344827587</v>
       </c>
       <c r="E68" s="1" t="s">
@@ -5257,7 +5237,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>286.36363636363626</v>
       </c>
-      <c r="I68" s="24">
+      <c r="I68" s="21">
         <v>17.62</v>
       </c>
       <c r="J68" s="6">
@@ -5304,10 +5284,10 @@
       <c r="B69" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C69" s="19">
+      <c r="C69" s="16">
         <v>58</v>
       </c>
-      <c r="D69" s="20">
+      <c r="D69" s="17">
         <v>303.79310344827587</v>
       </c>
       <c r="E69" s="1" t="s">
@@ -5323,7 +5303,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>287.49999999999989</v>
       </c>
-      <c r="I69" s="24">
+      <c r="I69" s="21">
         <v>17.62</v>
       </c>
       <c r="J69" s="6">
@@ -5370,10 +5350,10 @@
       <c r="B70" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C70" s="19">
+      <c r="C70" s="16">
         <v>58</v>
       </c>
-      <c r="D70" s="20">
+      <c r="D70" s="17">
         <v>303.79310344827587</v>
       </c>
       <c r="E70" s="1" t="s">
@@ -5389,7 +5369,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>276.08695652173907</v>
       </c>
-      <c r="I70" s="24">
+      <c r="I70" s="21">
         <v>17.62</v>
       </c>
       <c r="J70" s="6">
@@ -5436,10 +5416,10 @@
       <c r="B71" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C71" s="19">
+      <c r="C71" s="16">
         <v>58</v>
       </c>
-      <c r="D71" s="20">
+      <c r="D71" s="17">
         <v>303.79310344827587</v>
       </c>
       <c r="E71" s="1" t="s">
@@ -5455,7 +5435,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>276.08695652173907</v>
       </c>
-      <c r="I71" s="24">
+      <c r="I71" s="21">
         <v>17.62</v>
       </c>
       <c r="J71" s="6">
@@ -5502,10 +5482,10 @@
       <c r="B72" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C72" s="19">
+      <c r="C72" s="16">
         <v>45</v>
       </c>
-      <c r="D72" s="20">
+      <c r="D72" s="17">
         <v>286.66666666666669</v>
       </c>
       <c r="E72" s="1" t="s">
@@ -5521,7 +5501,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>271.61157024793386</v>
       </c>
-      <c r="I72" s="24">
+      <c r="I72" s="21">
         <v>12.9</v>
       </c>
       <c r="J72" s="6">
@@ -5568,10 +5548,10 @@
       <c r="B73" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C73" s="19">
+      <c r="C73" s="16">
         <v>45</v>
       </c>
-      <c r="D73" s="20">
+      <c r="D73" s="17">
         <v>282.14814814814815</v>
       </c>
       <c r="E73" s="1" t="s">
@@ -5587,7 +5567,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>267.5</v>
       </c>
-      <c r="I73" s="24">
+      <c r="I73" s="21">
         <v>12.9</v>
       </c>
       <c r="J73" s="6">
@@ -5634,10 +5614,10 @@
       <c r="B74" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C74" s="19">
+      <c r="C74" s="16">
         <v>45</v>
       </c>
-      <c r="D74" s="20">
+      <c r="D74" s="17">
         <v>282.14814814814815</v>
       </c>
       <c r="E74" s="1" t="s">
@@ -5653,7 +5633,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>277.49999999999994</v>
       </c>
-      <c r="I74" s="24">
+      <c r="I74" s="21">
         <v>12.9</v>
       </c>
       <c r="J74" s="6">
@@ -5700,10 +5680,10 @@
       <c r="B75" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C75" s="19">
+      <c r="C75" s="16">
         <v>45</v>
       </c>
-      <c r="D75" s="20">
+      <c r="D75" s="17">
         <v>286.66666666666669</v>
       </c>
       <c r="E75" s="1" t="s">
@@ -5719,7 +5699,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>312.7108433734939</v>
       </c>
-      <c r="I75" s="24">
+      <c r="I75" s="21">
         <v>12.9</v>
       </c>
       <c r="J75" s="6">
@@ -5766,10 +5746,10 @@
       <c r="B76" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C76" s="19">
+      <c r="C76" s="16">
         <v>45</v>
       </c>
-      <c r="D76" s="20">
+      <c r="D76" s="17">
         <v>286.66666666666669</v>
       </c>
       <c r="E76" s="1" t="s">
@@ -5785,7 +5765,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>286.20481927710841</v>
       </c>
-      <c r="I76" s="24">
+      <c r="I76" s="21">
         <v>12.9</v>
       </c>
       <c r="J76" s="6">
@@ -5832,10 +5812,10 @@
       <c r="B77" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C77" s="19">
+      <c r="C77" s="16">
         <v>45</v>
       </c>
-      <c r="D77" s="20">
+      <c r="D77" s="17">
         <v>273.11111111111109</v>
       </c>
       <c r="E77" s="1" t="s">
@@ -5851,7 +5831,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>900</v>
       </c>
-      <c r="I77" s="24">
+      <c r="I77" s="21">
         <v>12.9</v>
       </c>
       <c r="J77" s="6">
@@ -5898,10 +5878,10 @@
       <c r="B78" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C78" s="19">
+      <c r="C78" s="16">
         <v>65</v>
       </c>
-      <c r="D78" s="20">
+      <c r="D78" s="17">
         <v>271.07692307692309</v>
       </c>
       <c r="E78" s="1" t="s">
@@ -5917,7 +5897,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>315.78947368421052</v>
       </c>
-      <c r="I78" s="24">
+      <c r="I78" s="21">
         <v>17.62</v>
       </c>
       <c r="J78" s="6">
@@ -5964,10 +5944,10 @@
       <c r="B79" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C79" s="19">
+      <c r="C79" s="16">
         <v>65</v>
       </c>
-      <c r="D79" s="20">
+      <c r="D79" s="17">
         <v>271.07692307692309</v>
       </c>
       <c r="E79" s="1" t="s">
@@ -5983,7 +5963,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>244.44444444444446</v>
       </c>
-      <c r="I79" s="24">
+      <c r="I79" s="21">
         <v>17.62</v>
       </c>
       <c r="J79" s="6">
@@ -6030,10 +6010,10 @@
       <c r="B80" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C80" s="19">
+      <c r="C80" s="16">
         <v>1000</v>
       </c>
-      <c r="D80" s="20">
+      <c r="D80" s="17">
         <v>276.06</v>
       </c>
       <c r="E80" s="1" t="s">
@@ -6049,7 +6029,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>1000</v>
       </c>
-      <c r="I80" s="24">
+      <c r="I80" s="21">
         <v>290</v>
       </c>
       <c r="J80" s="6">
@@ -6096,10 +6076,10 @@
       <c r="B81" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C81" s="19">
+      <c r="C81" s="16">
         <v>1000</v>
       </c>
-      <c r="D81" s="20">
+      <c r="D81" s="17">
         <v>290</v>
       </c>
       <c r="E81" s="1" t="s">
@@ -6115,7 +6095,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>284.74137931034466</v>
       </c>
-      <c r="I81" s="24">
+      <c r="I81" s="21">
         <v>290</v>
       </c>
       <c r="J81" s="6">
@@ -6162,10 +6142,10 @@
       <c r="B82" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C82" s="19">
+      <c r="C82" s="16">
         <v>6</v>
       </c>
-      <c r="D82" s="20">
+      <c r="D82" s="17">
         <v>488.33333333333331</v>
       </c>
       <c r="E82" s="1" t="s">
@@ -6181,7 +6161,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>285.94827586206907</v>
       </c>
-      <c r="I82" s="24">
+      <c r="I82" s="21">
         <v>2.93</v>
       </c>
       <c r="J82" s="6"/>
@@ -6204,10 +6184,10 @@
       <c r="B83" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C83" s="19">
+      <c r="C83" s="16">
         <v>6</v>
       </c>
-      <c r="D83" s="20">
+      <c r="D83" s="17">
         <v>483.33333333333331</v>
       </c>
       <c r="E83" s="1" t="s">
@@ -6223,7 +6203,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>220.61855670103091</v>
       </c>
-      <c r="I83" s="24">
+      <c r="I83" s="21">
         <v>2.9</v>
       </c>
       <c r="J83" s="6">
@@ -6270,10 +6250,10 @@
       <c r="B84" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C84" s="19">
+      <c r="C84" s="16">
         <v>6</v>
       </c>
-      <c r="D84" s="20">
+      <c r="D84" s="17">
         <v>488.33333333333331</v>
       </c>
       <c r="E84" s="1" t="s">
@@ -6289,7 +6269,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>475</v>
       </c>
-      <c r="I84" s="24">
+      <c r="I84" s="21">
         <v>2.93</v>
       </c>
       <c r="J84" s="6"/>
@@ -6312,10 +6292,10 @@
       <c r="B85" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C85" s="19">
+      <c r="C85" s="16">
         <v>240</v>
       </c>
-      <c r="D85" s="20">
+      <c r="D85" s="17">
         <v>269.33333333333331</v>
       </c>
       <c r="E85" s="1" t="s">
@@ -6331,7 +6311,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>298.78787878787887</v>
       </c>
-      <c r="I85" s="24">
+      <c r="I85" s="21">
         <v>64.64</v>
       </c>
       <c r="J85" s="6">
@@ -6378,10 +6358,10 @@
       <c r="B86" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C86" s="19">
+      <c r="C86" s="16">
         <v>240</v>
       </c>
-      <c r="D86" s="20">
+      <c r="D86" s="17">
         <v>269.33333333333331</v>
       </c>
       <c r="E86" s="1" t="s">
@@ -6397,7 +6377,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>298.78787878787887</v>
       </c>
-      <c r="I86" s="24">
+      <c r="I86" s="21">
         <v>64.64</v>
       </c>
       <c r="J86" s="6">
@@ -6444,10 +6424,10 @@
       <c r="B87" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C87" s="19">
+      <c r="C87" s="16">
         <v>240</v>
       </c>
-      <c r="D87" s="20">
+      <c r="D87" s="17">
         <v>269.33333333333331</v>
       </c>
       <c r="E87" s="1" t="s">
@@ -6463,7 +6443,7 @@
         <f ca="1">1000/$H87*$G87</f>
         <v>270.66666666666669</v>
       </c>
-      <c r="I87" s="24">
+      <c r="I87" s="21">
         <v>64.64</v>
       </c>
       <c r="J87" s="6">
@@ -6510,10 +6490,10 @@
       <c r="B88" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C88" s="19">
+      <c r="C88" s="16">
         <v>240</v>
       </c>
-      <c r="D88" s="20">
+      <c r="D88" s="17">
         <v>266.125</v>
       </c>
       <c r="E88" s="1" t="s">
@@ -6529,7 +6509,7 @@
         <f ca="1">1000/$H88*$G88</f>
         <v>289.23529411764707</v>
       </c>
-      <c r="I88" s="24">
+      <c r="I88" s="21">
         <v>64.64</v>
       </c>
       <c r="J88" s="6">
@@ -6576,10 +6556,10 @@
       <c r="B89" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C89" s="19">
+      <c r="C89" s="16">
         <v>42</v>
       </c>
-      <c r="D89" s="20">
+      <c r="D89" s="17">
         <v>340.23809523809524</v>
       </c>
       <c r="E89" s="1" t="s">
@@ -6595,7 +6575,7 @@
         <f ca="1">1000/$H89*$G89</f>
         <v>278.33333333333331</v>
       </c>
-      <c r="I89" s="24">
+      <c r="I89" s="21">
         <v>13.68</v>
       </c>
       <c r="J89" s="6">
@@ -6642,10 +6622,10 @@
       <c r="B90" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C90" s="19">
+      <c r="C90" s="16">
         <v>250</v>
       </c>
-      <c r="D90" s="20">
+      <c r="D90" s="17">
         <v>258.56</v>
       </c>
       <c r="E90" s="1" t="s">
@@ -6661,7 +6641,7 @@
         <f ca="1">1000/$H90*$G90</f>
         <v>270.28571428571433</v>
       </c>
-      <c r="I90" s="24">
+      <c r="I90" s="21">
         <v>64.64</v>
       </c>
       <c r="J90" s="6">
@@ -6708,10 +6688,10 @@
       <c r="B91" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C91" s="19">
+      <c r="C91" s="16">
         <v>8</v>
       </c>
-      <c r="D91" s="20">
+      <c r="D91" s="17">
         <v>382.5</v>
       </c>
       <c r="E91" s="1" t="s">
@@ -6727,7 +6707,7 @@
         <f ca="1">1000/$H91*$G91</f>
         <v>492.85714285714289</v>
       </c>
-      <c r="I91" s="24">
+      <c r="I91" s="21">
         <v>3.06</v>
       </c>
       <c r="J91" s="6">
@@ -6774,10 +6754,10 @@
       <c r="B92" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C92" s="19">
+      <c r="C92" s="16">
         <v>13</v>
       </c>
-      <c r="D92" s="20">
+      <c r="D92" s="17">
         <v>380</v>
       </c>
       <c r="E92" s="1" t="s">
@@ -6786,7 +6766,7 @@
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="2"/>
-      <c r="I92" s="24">
+      <c r="I92" s="21">
         <v>4.9400000000000004</v>
       </c>
       <c r="J92" s="6">
@@ -6833,10 +6813,10 @@
       <c r="B93" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C93" s="21">
+      <c r="C93" s="18">
         <v>36</v>
       </c>
-      <c r="D93" s="20">
+      <c r="D93" s="17">
         <v>250</v>
       </c>
       <c r="E93" s="7" t="s">
@@ -6852,7 +6832,7 @@
         <f t="shared" ref="H93:H119" ca="1" si="1">1000/$H93*$G93</f>
         <v>220</v>
       </c>
-      <c r="I93" s="24">
+      <c r="I93" s="21">
         <v>9</v>
       </c>
       <c r="J93" s="8">
@@ -6899,10 +6879,10 @@
       <c r="B94" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C94" s="22">
+      <c r="C94" s="19">
         <v>230</v>
       </c>
-      <c r="D94" s="20">
+      <c r="D94" s="17">
         <v>345.6521739130435</v>
       </c>
       <c r="E94" s="9" t="s">
@@ -6918,7 +6898,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>228.26086956521738</v>
       </c>
-      <c r="I94" s="24">
+      <c r="I94" s="21">
         <v>79.5</v>
       </c>
       <c r="J94" s="10">
@@ -6965,10 +6945,10 @@
       <c r="B95" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C95" s="19">
+      <c r="C95" s="16">
         <v>280</v>
       </c>
-      <c r="D95" s="20">
+      <c r="D95" s="17">
         <v>257.41071428571428</v>
       </c>
       <c r="E95" s="1" t="s">
@@ -6984,7 +6964,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>250</v>
       </c>
-      <c r="I95" s="24">
+      <c r="I95" s="21">
         <v>79.5</v>
       </c>
       <c r="J95" s="6">
@@ -7031,10 +7011,10 @@
       <c r="B96" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C96" s="19">
+      <c r="C96" s="16">
         <v>280</v>
       </c>
-      <c r="D96" s="20">
+      <c r="D96" s="17">
         <v>248.57142857142861</v>
       </c>
       <c r="E96" s="1" t="s">
@@ -7050,7 +7030,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>278.26086956521738</v>
       </c>
-      <c r="I96" s="24">
+      <c r="I96" s="21">
         <v>79.5</v>
       </c>
       <c r="J96" s="6">
@@ -7097,10 +7077,10 @@
       <c r="B97" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C97" s="19">
+      <c r="C97" s="16">
         <v>280</v>
       </c>
-      <c r="D97" s="20">
+      <c r="D97" s="17">
         <v>283.92857142857144</v>
       </c>
       <c r="E97" s="1" t="s">
@@ -7116,7 +7096,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>333.33333333333331</v>
       </c>
-      <c r="I97" s="24">
+      <c r="I97" s="21">
         <v>79.5</v>
       </c>
       <c r="J97" s="6">
@@ -7163,10 +7143,10 @@
       <c r="B98" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C98" s="19">
+      <c r="C98" s="16">
         <v>280</v>
       </c>
-      <c r="D98" s="20">
+      <c r="D98" s="17">
         <v>275.08928571428572</v>
       </c>
       <c r="E98" s="1" t="s">
@@ -7182,7 +7162,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>425</v>
       </c>
-      <c r="I98" s="24">
+      <c r="I98" s="21">
         <v>79.5</v>
       </c>
       <c r="J98" s="6">
@@ -7229,10 +7209,10 @@
       <c r="B99" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C99" s="19">
+      <c r="C99" s="16">
         <v>205</v>
       </c>
-      <c r="D99" s="20">
+      <c r="D99" s="17">
         <v>270.5691056910569</v>
       </c>
       <c r="E99" s="1" t="s">
@@ -7248,7 +7228,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>216.66666666666669</v>
       </c>
-      <c r="I99" s="24">
+      <c r="I99" s="21">
         <v>59.5</v>
       </c>
       <c r="J99" s="6">
@@ -7295,26 +7275,26 @@
       <c r="B100" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C100" s="19">
+      <c r="C100" s="16">
         <v>205</v>
       </c>
-      <c r="D100" s="23">
+      <c r="D100" s="20">
         <v>260.73170731707319</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F100" s="14">
+      <c r="F100" s="13">
         <v>65.349999999999994</v>
       </c>
-      <c r="G100" s="14">
+      <c r="G100" s="13">
         <v>270</v>
       </c>
-      <c r="H100" s="15">
+      <c r="H100" s="14">
         <f t="shared" ca="1" si="1"/>
         <v>242.03703703703701</v>
       </c>
-      <c r="I100" s="24">
+      <c r="I100" s="21">
         <v>59.5</v>
       </c>
       <c r="J100" s="6">
@@ -7361,26 +7341,26 @@
       <c r="B101" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C101" s="19">
+      <c r="C101" s="16">
         <v>1170</v>
       </c>
-      <c r="D101" s="23">
+      <c r="D101" s="20">
         <v>231.82336182336181</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F101" s="14">
+      <c r="F101" s="13">
         <v>43.6</v>
       </c>
-      <c r="G101" s="14">
+      <c r="G101" s="13">
         <v>165</v>
       </c>
-      <c r="H101" s="15">
+      <c r="H101" s="14">
         <f t="shared" ca="1" si="1"/>
         <v>264.24242424242425</v>
       </c>
-      <c r="I101" s="24">
+      <c r="I101" s="21">
         <v>308</v>
       </c>
       <c r="J101" s="6">
@@ -7427,26 +7407,26 @@
       <c r="B102" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C102" s="19">
+      <c r="C102" s="16">
         <v>1170</v>
       </c>
-      <c r="D102" s="23">
+      <c r="D102" s="20">
         <v>216.11111111111111</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F102" s="14">
+      <c r="F102" s="13">
         <v>32</v>
       </c>
-      <c r="G102" s="14">
+      <c r="G102" s="13">
         <v>70</v>
       </c>
-      <c r="H102" s="15">
+      <c r="H102" s="14">
         <f t="shared" ca="1" si="1"/>
         <v>457.14285714285717</v>
       </c>
-      <c r="I102" s="24">
+      <c r="I102" s="21">
         <v>308</v>
       </c>
       <c r="J102" s="6">
@@ -7493,26 +7473,26 @@
       <c r="B103" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C103" s="19">
+      <c r="C103" s="16">
         <v>1170</v>
       </c>
-      <c r="D103" s="23">
+      <c r="D103" s="20">
         <v>263.24786324786328</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F103" s="14">
+      <c r="F103" s="13">
         <v>13.55</v>
       </c>
-      <c r="G103" s="14">
+      <c r="G103" s="13">
         <v>45</v>
       </c>
-      <c r="H103" s="15">
+      <c r="H103" s="14">
         <f t="shared" ca="1" si="1"/>
         <v>301.11111111111114</v>
       </c>
-      <c r="I103" s="24">
+      <c r="I103" s="21">
         <v>308</v>
       </c>
       <c r="J103" s="6">
@@ -7559,26 +7539,26 @@
       <c r="B104" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C104" s="19">
+      <c r="C104" s="16">
         <v>1170</v>
       </c>
-      <c r="D104" s="23">
+      <c r="D104" s="20">
         <v>263.24786324786328</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F104" s="14">
+      <c r="F104" s="13">
         <v>19.899999999999999</v>
       </c>
-      <c r="G104" s="14">
+      <c r="G104" s="13">
         <v>55</v>
       </c>
-      <c r="H104" s="15">
+      <c r="H104" s="14">
         <f t="shared" ca="1" si="1"/>
         <v>361.81818181818181</v>
       </c>
-      <c r="I104" s="24">
+      <c r="I104" s="21">
         <v>308</v>
       </c>
       <c r="J104" s="6">
@@ -7625,26 +7605,26 @@
       <c r="B105" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C105" s="19">
+      <c r="C105" s="16">
         <v>34</v>
       </c>
-      <c r="D105" s="23">
+      <c r="D105" s="20">
         <v>397.05882352941177</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F105" s="14">
+      <c r="F105" s="13">
         <v>103</v>
       </c>
-      <c r="G105" s="14">
+      <c r="G105" s="13">
         <v>500</v>
       </c>
-      <c r="H105" s="15">
+      <c r="H105" s="14">
         <f t="shared" ca="1" si="1"/>
         <v>206</v>
       </c>
-      <c r="I105" s="24">
+      <c r="I105" s="21">
         <v>13.5</v>
       </c>
       <c r="J105" s="6">
@@ -7691,26 +7671,26 @@
       <c r="B106" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C106" s="19">
+      <c r="C106" s="16">
         <v>42</v>
       </c>
-      <c r="D106" s="23">
+      <c r="D106" s="20">
         <v>246.42857142857142</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F106" s="14">
+      <c r="F106" s="13">
         <v>48</v>
       </c>
-      <c r="G106" s="14">
+      <c r="G106" s="13">
         <v>200</v>
       </c>
-      <c r="H106" s="15">
+      <c r="H106" s="14">
         <f t="shared" ca="1" si="1"/>
         <v>240</v>
       </c>
-      <c r="I106" s="24">
+      <c r="I106" s="21">
         <v>13.5</v>
       </c>
       <c r="J106" s="6">
@@ -7757,26 +7737,26 @@
       <c r="B107" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C107" s="19">
+      <c r="C107" s="16">
         <v>34</v>
       </c>
-      <c r="D107" s="23">
+      <c r="D107" s="20">
         <v>350.73529411764702</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F107" s="14">
+      <c r="F107" s="13">
         <v>184</v>
       </c>
-      <c r="G107" s="14">
+      <c r="G107" s="13">
         <v>900</v>
       </c>
-      <c r="H107" s="15">
+      <c r="H107" s="14">
         <f t="shared" ca="1" si="1"/>
         <v>204.44444444444446</v>
       </c>
-      <c r="I107" s="24">
+      <c r="I107" s="21">
         <v>13.5</v>
       </c>
       <c r="J107" s="6">
@@ -7823,10 +7803,10 @@
       <c r="B108" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C108" s="19">
+      <c r="C108" s="16">
         <v>54</v>
       </c>
-      <c r="D108" s="20">
+      <c r="D108" s="17">
         <v>267.59259259259261</v>
       </c>
       <c r="E108" s="1" t="s">
@@ -7842,7 +7822,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>242.96296296296299</v>
       </c>
-      <c r="I108" s="24">
+      <c r="I108" s="21">
         <v>19.2</v>
       </c>
       <c r="J108" s="6">
@@ -7889,10 +7869,10 @@
       <c r="B109" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C109" s="19">
+      <c r="C109" s="16">
         <v>54</v>
       </c>
-      <c r="D109" s="20">
+      <c r="D109" s="17">
         <v>267.59259259259261</v>
       </c>
       <c r="E109" s="1" t="s">
@@ -7908,7 +7888,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>264.24242424242425</v>
       </c>
-      <c r="I109" s="24">
+      <c r="I109" s="21">
         <v>19.2</v>
       </c>
       <c r="J109" s="6">
@@ -7955,10 +7935,10 @@
       <c r="B110" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C110" s="19">
+      <c r="C110" s="16">
         <v>54</v>
       </c>
-      <c r="D110" s="20">
+      <c r="D110" s="17">
         <v>355.55555555555554</v>
       </c>
       <c r="E110" s="1" t="s">
@@ -7974,7 +7954,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>273.5042735042735</v>
       </c>
-      <c r="I110" s="24">
+      <c r="I110" s="21">
         <v>19.2</v>
       </c>
       <c r="J110" s="6">
@@ -8021,10 +8001,10 @@
       <c r="B111" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C111" s="19">
+      <c r="C111" s="16">
         <v>60</v>
       </c>
-      <c r="D111" s="20">
+      <c r="D111" s="17">
         <v>311.20370370370358</v>
       </c>
       <c r="E111" s="1" t="s">
@@ -8040,7 +8020,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>307.95454545454544</v>
       </c>
-      <c r="I111" s="24">
+      <c r="I111" s="21">
         <v>19.2</v>
       </c>
       <c r="J111" s="6">
@@ -8087,10 +8067,10 @@
       <c r="B112" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C112" s="21">
+      <c r="C112" s="18">
         <v>60</v>
       </c>
-      <c r="D112" s="20">
+      <c r="D112" s="17">
         <v>320</v>
       </c>
       <c r="E112" s="7" t="s">
@@ -8106,7 +8086,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>307.69230769230768</v>
       </c>
-      <c r="I112" s="24">
+      <c r="I112" s="21">
         <v>19.2</v>
       </c>
       <c r="J112" s="8">
@@ -8153,10 +8133,10 @@
       <c r="B113" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C113" s="22">
+      <c r="C113" s="19">
         <v>45</v>
       </c>
-      <c r="D113" s="20">
+      <c r="D113" s="17">
         <v>258.22222222222217</v>
       </c>
       <c r="E113" s="9" t="s">
@@ -8172,7 +8152,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>266.66666666666669</v>
       </c>
-      <c r="I113" s="24">
+      <c r="I113" s="21">
         <v>11.62</v>
       </c>
       <c r="J113" s="10">
@@ -8219,10 +8199,10 @@
       <c r="B114" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C114" s="19">
+      <c r="C114" s="16">
         <v>34</v>
       </c>
-      <c r="D114" s="20">
+      <c r="D114" s="17">
         <v>293.8235294117647</v>
       </c>
       <c r="E114" s="1" t="s">
@@ -8238,7 +8218,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>284.48275862068965</v>
       </c>
-      <c r="I114" s="24">
+      <c r="I114" s="21">
         <v>9.99</v>
       </c>
       <c r="J114" s="6">
@@ -8285,10 +8265,10 @@
       <c r="B115" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C115" s="19">
+      <c r="C115" s="16">
         <v>54</v>
       </c>
-      <c r="D115" s="20">
+      <c r="D115" s="17">
         <v>355.55555555555554</v>
       </c>
       <c r="E115" s="1" t="s">
@@ -8304,7 +8284,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>186.9158878504673</v>
       </c>
-      <c r="I115" s="24">
+      <c r="I115" s="21">
         <v>19.2</v>
       </c>
       <c r="J115" s="6">
@@ -8351,10 +8331,10 @@
       <c r="B116" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C116" s="19">
+      <c r="C116" s="16">
         <v>54</v>
       </c>
-      <c r="D116" s="20">
+      <c r="D116" s="17">
         <v>355.55555555555554</v>
       </c>
       <c r="E116" s="1" t="s">
@@ -8370,7 +8350,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>298.46153846153845</v>
       </c>
-      <c r="I116" s="24">
+      <c r="I116" s="21">
         <v>19.2</v>
       </c>
       <c r="J116" s="6">
@@ -8417,10 +8397,10 @@
       <c r="B117" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C117" s="19">
+      <c r="C117" s="16">
         <v>230</v>
       </c>
-      <c r="D117" s="20">
+      <c r="D117" s="17">
         <v>302.17391304347825</v>
       </c>
       <c r="E117" s="1" t="s">
@@ -8436,7 +8416,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>298.46153846153845</v>
       </c>
-      <c r="I117" s="24">
+      <c r="I117" s="21">
         <v>69.5</v>
       </c>
       <c r="J117" s="6">
@@ -8483,10 +8463,10 @@
       <c r="B118" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C118" s="19">
+      <c r="C118" s="16">
         <v>20</v>
       </c>
-      <c r="D118" s="20">
+      <c r="D118" s="17">
         <v>575</v>
       </c>
       <c r="E118" s="1" t="s">
@@ -8502,7 +8482,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>214.28571428571431</v>
       </c>
-      <c r="I118" s="24">
+      <c r="I118" s="21">
         <v>11.5</v>
       </c>
       <c r="J118" s="6">
@@ -8549,10 +8529,10 @@
       <c r="B119" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C119" s="19">
+      <c r="C119" s="16">
         <v>42</v>
       </c>
-      <c r="D119" s="20">
+      <c r="D119" s="17">
         <v>357.14285714285717</v>
       </c>
       <c r="E119" s="1" t="s">
@@ -8568,7 +8548,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>216</v>
       </c>
-      <c r="I119" s="24">
+      <c r="I119" s="21">
         <v>15</v>
       </c>
       <c r="J119" s="6">
@@ -8615,10 +8595,10 @@
       <c r="B120" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C120" s="19">
+      <c r="C120" s="16">
         <v>43</v>
       </c>
-      <c r="D120" s="20">
+      <c r="D120" s="17">
         <v>313.95348837209303</v>
       </c>
       <c r="E120" s="1" t="s">
@@ -8627,7 +8607,7 @@
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
       <c r="H120" s="2"/>
-      <c r="I120" s="24">
+      <c r="I120" s="21">
         <v>13.5</v>
       </c>
       <c r="J120" s="6">
@@ -8674,10 +8654,10 @@
       <c r="B121" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C121" s="19">
+      <c r="C121" s="16">
         <v>6</v>
       </c>
-      <c r="D121" s="20">
+      <c r="D121" s="17">
         <v>333.33333333333331</v>
       </c>
       <c r="E121" s="1" t="s">
@@ -8686,7 +8666,7 @@
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
       <c r="H121" s="2"/>
-      <c r="I121" s="24">
+      <c r="I121" s="21">
         <v>2.86</v>
       </c>
       <c r="J121" s="6">
@@ -8733,10 +8713,10 @@
       <c r="B122" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C122" s="19">
+      <c r="C122" s="16">
         <v>4</v>
       </c>
-      <c r="D122" s="20">
+      <c r="D122" s="17">
         <v>500</v>
       </c>
       <c r="E122" s="1" t="s">
@@ -8745,7 +8725,7 @@
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
       <c r="H122" s="2"/>
-      <c r="I122" s="24">
+      <c r="I122" s="21">
         <v>2</v>
       </c>
       <c r="J122" s="6">
@@ -8792,10 +8772,10 @@
       <c r="B123" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C123" s="19">
+      <c r="C123" s="16">
         <v>3</v>
       </c>
-      <c r="D123" s="20">
+      <c r="D123" s="17">
         <v>500</v>
       </c>
       <c r="E123" s="1" t="s">
@@ -8804,7 +8784,7 @@
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
       <c r="H123" s="2"/>
-      <c r="I123" s="24">
+      <c r="I123" s="21">
         <v>1.5</v>
       </c>
       <c r="J123" s="6">
@@ -8851,10 +8831,10 @@
       <c r="B124" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C124" s="19">
+      <c r="C124" s="16">
         <v>4</v>
       </c>
-      <c r="D124" s="20">
+      <c r="D124" s="17">
         <v>375</v>
       </c>
       <c r="E124" s="1" t="s">
@@ -8863,7 +8843,7 @@
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
       <c r="H124" s="2"/>
-      <c r="I124" s="24">
+      <c r="I124" s="21">
         <v>1.5</v>
       </c>
       <c r="J124" s="6">
@@ -8910,10 +8890,10 @@
       <c r="B125" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C125" s="19">
+      <c r="C125" s="16">
         <v>1100</v>
       </c>
-      <c r="D125" s="20">
+      <c r="D125" s="17">
         <v>243.40909090909091</v>
       </c>
       <c r="E125" s="1" t="s">
@@ -8922,7 +8902,7 @@
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
       <c r="H125" s="2"/>
-      <c r="I125" s="24">
+      <c r="I125" s="21">
         <v>308</v>
       </c>
       <c r="J125" s="6">
@@ -8965,10 +8945,10 @@
       <c r="B126" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C126" s="19">
+      <c r="C126" s="16">
         <v>1000</v>
       </c>
-      <c r="D126" s="20">
+      <c r="D126" s="17">
         <v>267.75</v>
       </c>
       <c r="E126" s="1" t="s">
@@ -8977,7 +8957,7 @@
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
       <c r="H126" s="2"/>
-      <c r="I126" s="24">
+      <c r="I126" s="21">
         <v>252.63</v>
       </c>
       <c r="J126" s="6">
@@ -9020,10 +9000,10 @@
       <c r="B127" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C127" s="19">
+      <c r="C127" s="16">
         <v>28</v>
       </c>
-      <c r="D127" s="20">
+      <c r="D127" s="17">
         <v>357.14285714285717</v>
       </c>
       <c r="E127" s="1" t="s">
@@ -9032,7 +9012,7 @@
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
       <c r="H127" s="2"/>
-      <c r="I127" s="28">
+      <c r="I127" s="24">
         <v>10</v>
       </c>
       <c r="J127" s="6">
@@ -9079,10 +9059,10 @@
       <c r="B128" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C128" s="19">
+      <c r="C128" s="16">
         <v>26</v>
       </c>
-      <c r="D128" s="20">
+      <c r="D128" s="17">
         <v>384.61538461538464</v>
       </c>
       <c r="E128" s="1" t="s">
@@ -9091,7 +9071,7 @@
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
       <c r="H128" s="2"/>
-      <c r="I128" s="24">
+      <c r="I128" s="21">
         <v>10</v>
       </c>
       <c r="J128" s="6">
@@ -9138,10 +9118,10 @@
       <c r="B129" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C129" s="19">
+      <c r="C129" s="16">
         <v>1100</v>
       </c>
-      <c r="D129" s="20">
+      <c r="D129" s="17">
         <v>204.54545454545456</v>
       </c>
       <c r="E129" s="1" t="s">
@@ -9150,7 +9130,7 @@
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
       <c r="H129" s="2"/>
-      <c r="I129" s="24">
+      <c r="I129" s="21">
         <v>245.25</v>
       </c>
       <c r="J129" s="6">
@@ -9197,10 +9177,10 @@
       <c r="B130" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C130" s="19">
+      <c r="C130" s="16">
         <v>1100</v>
       </c>
-      <c r="D130" s="20">
+      <c r="D130" s="17">
         <v>243.40909090909091</v>
       </c>
       <c r="E130" s="1" t="s">
@@ -9216,7 +9196,7 @@
         <f ca="1">1000/$H130*$G130</f>
         <v>216.66666666666669</v>
       </c>
-      <c r="I130" s="24">
+      <c r="I130" s="21">
         <v>308</v>
       </c>
       <c r="J130" s="6">
@@ -9263,10 +9243,10 @@
       <c r="B131" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C131" s="19">
+      <c r="C131" s="16">
         <v>68</v>
       </c>
-      <c r="D131" s="24">
+      <c r="D131" s="21">
         <v>345.58823529411762</v>
       </c>
       <c r="E131" s="1" t="s">
@@ -9275,7 +9255,7 @@
       <c r="F131" s="2"/>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
-      <c r="I131" s="24">
+      <c r="I131" s="21">
         <v>23.5</v>
       </c>
       <c r="J131" s="6">
@@ -9322,10 +9302,10 @@
       <c r="B132" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C132" s="19">
+      <c r="C132" s="16">
         <v>60</v>
       </c>
-      <c r="D132" s="24">
+      <c r="D132" s="21">
         <v>300</v>
       </c>
       <c r="E132" s="1" t="s">
@@ -9334,7 +9314,7 @@
       <c r="F132" s="2"/>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
-      <c r="I132" s="28">
+      <c r="I132" s="24">
         <v>18</v>
       </c>
       <c r="J132" s="6">
@@ -9381,10 +9361,10 @@
       <c r="B133" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C133" s="19">
+      <c r="C133" s="16">
         <v>50</v>
       </c>
-      <c r="D133" s="24">
+      <c r="D133" s="21">
         <v>470</v>
       </c>
       <c r="E133" s="1" t="s">
@@ -9393,7 +9373,7 @@
       <c r="F133" s="2"/>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
-      <c r="I133" s="24">
+      <c r="I133" s="21">
         <v>23.5</v>
       </c>
       <c r="J133" s="6">
@@ -9440,10 +9420,10 @@
       <c r="B134" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C134" s="21">
+      <c r="C134" s="18">
         <v>6</v>
       </c>
-      <c r="D134" s="24">
+      <c r="D134" s="21">
         <v>416.66666666666669</v>
       </c>
       <c r="E134" s="7" t="s">
@@ -9452,7 +9432,7 @@
       <c r="F134" s="2"/>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
-      <c r="I134" s="24">
+      <c r="I134" s="21">
         <v>2.5</v>
       </c>
       <c r="J134" s="8">
@@ -9490,63 +9470,6 @@
       </c>
       <c r="U134" s="8">
         <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A135" s="13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B135" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="C135" s="25">
-        <v>1</v>
-      </c>
-      <c r="D135" s="24">
-        <v>300</v>
-      </c>
-      <c r="E135" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F135" s="2"/>
-      <c r="G135" s="1"/>
-      <c r="H135" s="1"/>
-      <c r="I135" s="24"/>
-      <c r="J135" s="8">
-        <v>6000</v>
-      </c>
-      <c r="K135" s="8">
-        <v>6000</v>
-      </c>
-      <c r="L135" s="8">
-        <v>6000</v>
-      </c>
-      <c r="M135" s="8">
-        <v>6000</v>
-      </c>
-      <c r="N135" s="8">
-        <v>6000</v>
-      </c>
-      <c r="O135" s="8">
-        <v>6000</v>
-      </c>
-      <c r="P135" s="8">
-        <v>6000</v>
-      </c>
-      <c r="Q135" s="8">
-        <v>6000</v>
-      </c>
-      <c r="R135" s="8">
-        <v>6000</v>
-      </c>
-      <c r="S135" s="8">
-        <v>6000</v>
-      </c>
-      <c r="T135" s="8">
-        <v>6000</v>
-      </c>
-      <c r="U135" s="17">
-        <v>6000</v>
       </c>
     </row>
   </sheetData>
